--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>-2.933625599755151</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.62772200587263</v>
+        <v>-12.17496717235394</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6767045708193874</v>
+        <v>-0.2614560015883617</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.762314421326781</v>
+        <v>-9.082918733314969</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.930670486433904</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.23235073570923</v>
+        <v>-12.79745380326665</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6762332479170853</v>
+        <v>-0.2430089468843696</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.667984379352145</v>
+        <v>-8.982409124399037</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.931473566042503</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.61484236323025</v>
+        <v>-13.1657402822044</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6459245668384894</v>
+        <v>-0.2567427725653403</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.101244773939507</v>
+        <v>-8.388568452104026</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.91046141711259</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.18980393482749</v>
+        <v>-13.76578670604639</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6547749635594962</v>
+        <v>-0.2371174106055929</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.826594444925777</v>
+        <v>-8.160107767515907</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.844754480658067</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.60086296714917</v>
+        <v>-14.13687493779227</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.797690541379778</v>
+        <v>-0.3183027805271362</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.394666281874393</v>
+        <v>-7.730064896073731</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.711973157387536</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.27311344116328</v>
+        <v>-14.84968536601005</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5923377713073046</v>
+        <v>-0.08879471171167827</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.92164138020283</v>
+        <v>-7.239889077679507</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.488776934389997</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.0129856593549</v>
+        <v>-15.60204764111268</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7343237956258238</v>
+        <v>-0.2360831186810965</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.651756649423489</v>
+        <v>-6.971693253966748</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.158796881754593</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.60010998029211</v>
+        <v>-16.18537519422578</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6876366436922287</v>
+        <v>-0.2075549907889754</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.309707145380553</v>
+        <v>-6.638834546518705</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.715700873323867</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.31646842257999</v>
+        <v>-16.88978036401917</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6362755396441373</v>
+        <v>-0.1499881351939059</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.19241320422153</v>
+        <v>-6.487356602639935</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.170582429030619</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.81411994589684</v>
+        <v>-17.35903468247232</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7121454346119398</v>
+        <v>-0.2625819396327501</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.968665748656431</v>
+        <v>-6.261540563225843</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5530201169061345</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.38180219711408</v>
+        <v>-17.90067634333737</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6677887125841719</v>
+        <v>-0.1923155502812063</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.663759107775473</v>
+        <v>-5.97032847111733</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09747252270422921</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.75169902930137</v>
+        <v>-18.24200577072401</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.670171511701366</v>
+        <v>-0.2018860236585081</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.126149876185675</v>
+        <v>-5.398744713653254</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7331721426301223</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.58109641432472</v>
+        <v>-19.11476486275915</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4195324660993622</v>
+        <v>0.07114085980284737</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.679702349282816</v>
+        <v>-4.990160126568666</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.3150531541767</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.25112119685573</v>
+        <v>-19.76612002143786</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2800732562292961</v>
+        <v>0.2073400862653237</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.586943383649187</v>
+        <v>-4.857666021810399</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.811171716683623</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.06818563260217</v>
+        <v>-20.58204542683708</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.09209397202779325</v>
+        <v>0.395057524409992</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.23828226667118</v>
+        <v>-4.513901426095197</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.209399392873225</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.87193519635857</v>
+        <v>-21.43428888031923</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1857246942736339</v>
+        <v>0.6925539218825335</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.029970636156476</v>
+        <v>-4.347079303285923</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.509457333066329</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.51574918860045</v>
+        <v>-22.1058978314941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.130566822401442</v>
+        <v>0.6180325341074286</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.883009536758101</v>
+        <v>-4.219953042692763</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.725254232997836</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.03767384138586</v>
+        <v>-22.56626247631771</v>
       </c>
       <c r="F19" t="n">
-        <v>0.469762204424881</v>
+        <v>1.014886417845829</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.439625608720207</v>
+        <v>-3.763581550235876</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.877084324020604</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.47515314084214</v>
+        <v>-23.01667697098161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7130171912241513</v>
+        <v>1.219702403501792</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.041266110155008</v>
+        <v>-3.392846810666719</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.986588081671913</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.08649822203654</v>
+        <v>-23.58227754604702</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8721672245681734</v>
+        <v>1.330149070274593</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.899319362745013</v>
+        <v>-3.274557854491724</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.077051161129903</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.53640211688961</v>
+        <v>-24.01305358644833</v>
       </c>
       <c r="F22" t="n">
-        <v>1.048062313246763</v>
+        <v>1.48675919686732</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.829825419261131</v>
+        <v>-3.220499736058237</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.165480881954788</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.91034447065499</v>
+        <v>-24.36916422374328</v>
       </c>
       <c r="F23" t="n">
-        <v>1.249683777009345</v>
+        <v>1.709223606753929</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.567913900912401</v>
+        <v>-2.947525221808249</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.270577353245906</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.5277774726708</v>
+        <v>-25.07203759410419</v>
       </c>
       <c r="F24" t="n">
-        <v>1.458427453517825</v>
+        <v>1.922968542947949</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.627798094110457</v>
+        <v>-2.993741050839542</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.399440835514847</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.68979472033715</v>
+        <v>-25.18290321456793</v>
       </c>
       <c r="F25" t="n">
-        <v>1.6697110367776</v>
+        <v>2.139017724442113</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.754557770224048</v>
+        <v>-3.072281775587057</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.563072283422361</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.80363229354596</v>
+        <v>-25.28837480626087</v>
       </c>
       <c r="F26" t="n">
-        <v>1.744808485877741</v>
+        <v>2.221158832471102</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.825662066957463</v>
+        <v>-3.112304945374213</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.76071387419067</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.80414289335679</v>
+        <v>-25.25780427912544</v>
       </c>
       <c r="F27" t="n">
-        <v>1.733287259377022</v>
+        <v>2.162191100471968</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.900995177508754</v>
+        <v>-3.218614444449029</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.995202617185376</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.76783793757668</v>
+        <v>-25.20001485438206</v>
       </c>
       <c r="F28" t="n">
-        <v>1.735434397043065</v>
+        <v>2.174052726846572</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.920541985651451</v>
+        <v>-3.204723511133957</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.261221750964475</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.86253456403089</v>
+        <v>-25.30527696922954</v>
       </c>
       <c r="F29" t="n">
-        <v>1.886467202625217</v>
+        <v>2.337470850916997</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.056754304416769</v>
+        <v>-3.316269931345464</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.552397768955888</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.74029173239769</v>
+        <v>-25.20709779021944</v>
       </c>
       <c r="F30" t="n">
-        <v>1.862953426721477</v>
+        <v>2.328672823407357</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.284560373862803</v>
+        <v>-3.546262415366065</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.86079412816486</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.31543341288084</v>
+        <v>-24.69690384078021</v>
       </c>
       <c r="F31" t="n">
-        <v>1.624333115128178</v>
+        <v>2.057295570104059</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.298896445474493</v>
+        <v>-3.530800405709987</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.16933307519648</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15799847120908</v>
+        <v>-24.54940595696533</v>
       </c>
       <c r="F32" t="n">
-        <v>1.727029138618677</v>
+        <v>2.171355712461176</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.665245263591672</v>
+        <v>-3.868752018963462</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.470460489393115</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.9805061215838</v>
+        <v>-24.44504721101393</v>
       </c>
       <c r="F33" t="n">
-        <v>1.587072421240625</v>
+        <v>2.019877768582406</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.736977990861489</v>
+        <v>-3.975545933243422</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.747867969811248</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.48328664426073</v>
+        <v>-23.92719426441229</v>
       </c>
       <c r="F34" t="n">
-        <v>1.426141834710128</v>
+        <v>1.841743896117881</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.837644707411521</v>
+        <v>-4.065044915469461</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.998565626763807</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.00875612776237</v>
+        <v>-23.36782562549955</v>
       </c>
       <c r="F35" t="n">
-        <v>1.425120635088474</v>
+        <v>1.882879911646584</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.843798089747132</v>
+        <v>-4.107660361219279</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.214579433803009</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.58383234673131</v>
+        <v>-22.98407713690571</v>
       </c>
       <c r="F36" t="n">
-        <v>1.309489416390349</v>
+        <v>1.77696318165702</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.884803182247418</v>
+        <v>-4.132614290435609</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.396346681103942</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.10670955427029</v>
+        <v>-22.55008039000534</v>
       </c>
       <c r="F37" t="n">
-        <v>1.235583366848806</v>
+        <v>1.669841959806017</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.878689076820332</v>
+        <v>-4.161417356687406</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.542649493731474</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.54648991567283</v>
+        <v>-21.94386749152489</v>
       </c>
       <c r="F38" t="n">
-        <v>1.316349783079414</v>
+        <v>1.810060523240904</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.693354437792858</v>
+        <v>-3.953982910463099</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.650697928852555</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.14557741805349</v>
+        <v>-21.55012957586283</v>
       </c>
       <c r="F39" t="n">
-        <v>1.187390600088412</v>
+        <v>1.61388545746048</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.663674187250665</v>
+        <v>-3.940052700239502</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.725276559525601</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.67996275979035</v>
+        <v>-21.07165827620911</v>
       </c>
       <c r="F40" t="n">
-        <v>1.198924918891973</v>
+        <v>1.679058941006593</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.763725565567135</v>
+        <v>-4.008211228833528</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>6.765379231936189</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.07126232376998</v>
+        <v>-20.48974469180291</v>
       </c>
       <c r="F41" t="n">
-        <v>1.229076492336468</v>
+        <v>1.695686165615585</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.613543759669696</v>
+        <v>-3.889817534235799</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>6.779993908354855</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.43525134402176</v>
+        <v>-19.86347438536894</v>
       </c>
       <c r="F42" t="n">
-        <v>1.20603403933503</v>
+        <v>1.66743297608314</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.751680646952747</v>
+        <v>-4.07110665168518</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.764781382479867</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.92209853414031</v>
+        <v>-19.3367710420463</v>
       </c>
       <c r="F43" t="n">
-        <v>1.046255575454605</v>
+        <v>1.527895212396023</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.653213437280125</v>
+        <v>-3.926371243769898</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.721509589559348</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.5359410618236</v>
+        <v>-18.94921269332552</v>
       </c>
       <c r="F44" t="n">
-        <v>1.030309150593383</v>
+        <v>1.480448706897608</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.565350992909302</v>
+        <v>-3.836832984635334</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.641874098946864</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.25187736706667</v>
+        <v>-18.69814160172974</v>
       </c>
       <c r="F45" t="n">
-        <v>1.072950780948884</v>
+        <v>1.479532245698687</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.754403845943826</v>
+        <v>-4.065607884491655</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.520960154755918</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.66574806114544</v>
+        <v>-18.08210947611801</v>
       </c>
       <c r="F46" t="n">
-        <v>1.135597450046544</v>
+        <v>1.567172120921202</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.703540249403721</v>
+        <v>-4.000290385614283</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.352071894261193</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.31611811375714</v>
+        <v>-17.70982984481353</v>
       </c>
       <c r="F47" t="n">
-        <v>1.118826210106292</v>
+        <v>1.525224382616311</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.582698294174589</v>
+        <v>-3.853303101610225</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>6.127746999972032</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.94179608320935</v>
+        <v>-17.31816051300045</v>
       </c>
       <c r="F48" t="n">
-        <v>1.094029388524063</v>
+        <v>1.505481189930989</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.575445158400273</v>
+        <v>-3.850540625710621</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.847703986201088</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.44015140752578</v>
+        <v>-16.83599718394536</v>
       </c>
       <c r="F49" t="n">
-        <v>1.029864012296764</v>
+        <v>1.452352624999264</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.493068388920132</v>
+        <v>-3.7707430398903</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.507193229568575</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.09240675174669</v>
+        <v>-16.45316515655045</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8854820965582089</v>
+        <v>1.320539319988766</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.543866523946029</v>
+        <v>-3.901757714427453</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.110598230859407</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.52879620671322</v>
+        <v>-15.91048920376091</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8226914121292906</v>
+        <v>1.238162550508626</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.59833050376761</v>
+        <v>-3.950146865730473</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.654382387858707</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.14748288644795</v>
+        <v>-15.46426424600635</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9097421337239272</v>
+        <v>1.339523159109269</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.74465008032674</v>
+        <v>-4.089357321846546</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.145642051889202</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.60476765674988</v>
+        <v>-14.9063357604062</v>
       </c>
       <c r="F53" t="n">
-        <v>1.048991866748526</v>
+        <v>1.471676863993652</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.872784448238713</v>
+        <v>-4.200458603761433</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.58399393646594</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.22388638247839</v>
+        <v>-14.53355862159373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9250732203515885</v>
+        <v>1.36243468908229</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.990431881574464</v>
+        <v>-4.312437069966717</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.975434153566701</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.72338073714204</v>
+        <v>-14.06986853184832</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7256774480721004</v>
+        <v>1.119061871557444</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.131828752265106</v>
+        <v>-4.460890691889048</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.321989598001561</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.56176935086377</v>
+        <v>-13.88520160026578</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8151109687839312</v>
+        <v>1.210721083752368</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.232390730392403</v>
+        <v>-4.55814031739739</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.629111184011189</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.20653589785922</v>
+        <v>-13.53282226928072</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7549911141347251</v>
+        <v>1.166652392387118</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.37534558512121</v>
+        <v>-4.684454855214363</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.9045728636053685</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.96994489320639</v>
+        <v>-13.25165197345181</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8162369068283196</v>
+        <v>1.24396244066751</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.775917682866661</v>
+        <v>-5.081924077186325</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1539897630754309</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.56126866000191</v>
+        <v>-12.80766579948319</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7490603009474232</v>
+        <v>1.171863128918125</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.963543474891438</v>
+        <v>-5.259940118925273</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6096099276300038</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.09247257214822</v>
+        <v>-12.33388154424681</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6052937234424293</v>
+        <v>0.9911500727937799</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.049402796927477</v>
+        <v>-5.327025078686278</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.378990906536068</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.05839330785121</v>
+        <v>-12.35175253762577</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6334421745521402</v>
+        <v>1.02088269254734</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.282301772178942</v>
+        <v>-5.604883021896231</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.137294772269045</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.73365182816504</v>
+        <v>-12.02928911863405</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5618403703107404</v>
+        <v>0.9427740137936022</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.607331282527634</v>
+        <v>-5.952994262154885</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.873260494517904</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.50867369613282</v>
+        <v>-11.81914456572151</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4923464268268584</v>
+        <v>0.8733324395210871</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.611167327260259</v>
+        <v>-5.940045974644418</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.566727192799211</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.27750290485646</v>
+        <v>-11.53987265380465</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4392440465008175</v>
+        <v>0.7720634770403358</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.580020738799793</v>
+        <v>-5.880423627503197</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.201938691364743</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.23910318062168</v>
+        <v>-11.55257218756112</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4593538236657088</v>
+        <v>0.8193005056932835</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.579654154320225</v>
+        <v>-5.86519727929827</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.761006765774823</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.08456163787794</v>
+        <v>-11.3683503942752</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4396237232832276</v>
+        <v>0.7836370727524218</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.65001218979166</v>
+        <v>-5.934953068838986</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.229763432660172</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.99247037968924</v>
+        <v>-11.26078403412757</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2277248017898912</v>
+        <v>0.5782843026799483</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.749710075931405</v>
+        <v>-6.086195351266606</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.600319912483871</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.98597659747974</v>
+        <v>-11.2591605885752</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2207989735866181</v>
+        <v>0.578205748862898</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.567727066431412</v>
+        <v>-5.882963534254492</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.867570295411983</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.95307564043849</v>
+        <v>-11.2525096987316</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2320976309390277</v>
+        <v>0.5377374407791227</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.350447208470126</v>
+        <v>-5.69514135768709</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.035935265553374</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.9486242574723</v>
+        <v>-11.18549020048481</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.07005962634516827</v>
+        <v>0.2502959318890269</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.188717991466284</v>
+        <v>-5.479615868306595</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.109616036361149</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.79928035895673</v>
+        <v>-11.01255397224845</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.03641240804193228</v>
+        <v>0.2662161721445658</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.179775948625385</v>
+        <v>-5.521838544971162</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.102480569573713</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.98132882997093</v>
+        <v>-11.18933933752028</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01121738969626716</v>
+        <v>0.3574695229513965</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.03767209358129</v>
+        <v>-5.355108068281781</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.023911964598839</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.16162293240434</v>
+        <v>-11.36594141055232</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.105487397834879</v>
+        <v>0.2181543284125894</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.958424384480322</v>
+        <v>-5.292736337543798</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.887743079862598</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.50701097367192</v>
+        <v>-11.73115119832227</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1386502009329711</v>
+        <v>0.1786286661334184</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.960335860695214</v>
+        <v>-5.257452581385346</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.699173150602029</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.91947088239766</v>
+        <v>-12.1845245534284</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2024359003778606</v>
+        <v>0.1341802979857584</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.772840991698855</v>
+        <v>-5.10168036217449</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.466058631000182</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.97801966070585</v>
+        <v>-12.20426774611372</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2606050019036495</v>
+        <v>0.1063853390527739</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.539536155059297</v>
+        <v>-4.880237151909534</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.188986415077089</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.3910163538481</v>
+        <v>-12.57751620782849</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.311861367529007</v>
+        <v>0.05268071279601362</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.367280726570707</v>
+        <v>-4.684769070482564</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.867232457440719</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.21674789407577</v>
+        <v>-13.42166861815446</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4902439937475247</v>
+        <v>-0.1309650191648779</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.260329704656646</v>
+        <v>-4.566584852730303</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.496815092943555</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.80010163179455</v>
+        <v>-14.0006757113298</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5299529482664799</v>
+        <v>-0.186450198608113</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.201283418840462</v>
+        <v>-4.595885426490086</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.072292717982793</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.36007251663802</v>
+        <v>-14.54485727894614</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5689549184319819</v>
+        <v>-0.2116136046699105</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.911576941558748</v>
+        <v>-4.213040306792332</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.592364125152582</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.03152436017878</v>
+        <v>-15.24090955952651</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5679991803245358</v>
+        <v>-0.1903255202492639</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.485383207152039</v>
+        <v>-3.78136089749494</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.053333800558398</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.95192634225497</v>
+        <v>-16.17923490419302</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7949804346915407</v>
+        <v>-0.4405587044631743</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.348804303907153</v>
+        <v>-3.668230308639585</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.461694458112879</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.69585717432753</v>
+        <v>-16.90690509613615</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8807219260020047</v>
+        <v>-0.5404267905398608</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.186931071572052</v>
+        <v>-3.469868828284594</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.821259424747461</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62954784378806</v>
+        <v>-17.85381899146683</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.022288996629589</v>
+        <v>-0.6758012019233083</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.910578743188898</v>
+        <v>-3.194485330311728</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.14725078790666</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.66360410683327</v>
+        <v>-18.85582529715549</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.074749854116385</v>
+        <v>-0.6842326449533799</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.909164774481992</v>
+        <v>-3.228080179403597</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4522335206344512</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.93230062140789</v>
+        <v>-20.13050499412878</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.258709801345478</v>
+        <v>-0.8999021496651334</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.62668524836891</v>
+        <v>-2.894278826150949</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2445330273461219</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.05884091172706</v>
+        <v>-21.20281696607752</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.232891780141594</v>
+        <v>-0.8880143386848461</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.826499974339333</v>
+        <v>-3.133985798880111</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.9256145310737224</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.59314097405177</v>
+        <v>-22.76893132430763</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.18719964322397</v>
+        <v>-0.7935664659846342</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.61788722085927</v>
+        <v>-2.886200875297604</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.573186825118904</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.8768674522887</v>
+        <v>-24.05519770929585</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.434487059298492</v>
+        <v>-1.11438025481829</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.71020104819628</v>
+        <v>-3.00578596945393</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.168632854232115</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.44895190061464</v>
+        <v>-25.58958941774046</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.413748851597198</v>
+        <v>-1.064498580991313</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.634920306856356</v>
+        <v>-2.851100411378936</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.69948433128547</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.12412514151633</v>
+        <v>-27.27930820709931</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.515685521522877</v>
+        <v>-1.172392248709978</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.781959960071781</v>
+        <v>-3.005419384974362</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.150568953046015</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.77550966815461</v>
+        <v>-28.93156991802798</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.658129776440857</v>
+        <v>-1.377574818845509</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.992484189766736</v>
+        <v>-3.27915325278917</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.513740828334162</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60518517489151</v>
+        <v>-30.75997547138924</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.785674990724952</v>
+        <v>-1.472598752870757</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.012790351474253</v>
+        <v>-3.269281656446509</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.778860993091764</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.36426698470582</v>
+        <v>-32.5673940632952</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.667490772972691</v>
+        <v>-1.37159163644684</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.388460889214741</v>
+        <v>-3.672236553309153</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.943850664963714</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.23141266217575</v>
+        <v>-34.4302323731302</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.992219160356023</v>
+        <v>-1.726144289703624</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.433786441652797</v>
+        <v>-3.734477361018719</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.001790567410444</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.21144017474703</v>
+        <v>-36.43177053927044</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.240632514474933</v>
+        <v>-1.934717766275162</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.898759577076698</v>
+        <v>-4.184918040288305</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.960145728242999</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.35162582798115</v>
+        <v>-38.60425490361509</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.309655135056513</v>
+        <v>-2.039089604529402</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.040811062909426</v>
+        <v>-4.343701489152759</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.812838691823658</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.60445765486548</v>
+        <v>-40.82926558696076</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.463332585812694</v>
+        <v>-2.168467741211339</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.464844567347249</v>
+        <v>-4.801447673408027</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.585787856980306</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.71785645648543</v>
+        <v>-43.00101678234628</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.687407348948835</v>
+        <v>-2.384870414882229</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.660155541140119</v>
+        <v>-4.975352732054675</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.269142205917352</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.89835331016922</v>
+        <v>-45.18775866448557</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.814559794147679</v>
+        <v>-2.551574706965927</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.719136365442095</v>
+        <v>-5.03493580228737</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.923551502673942</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.94423510603438</v>
+        <v>-47.16878119207283</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.93372593461307</v>
+        <v>-2.66385429613657</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.204716785538873</v>
+        <v>-5.540036845921161</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.508375652281609</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.22415490749825</v>
+        <v>-49.46100775820791</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.235202392149496</v>
+        <v>-2.985872576831664</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.545011921001017</v>
+        <v>-5.862722834061183</v>
       </c>
     </row>
   </sheetData>
